--- a/2022/Symphony/MAY/28.05.2022/MC Bank Statement May-2022.xlsx
+++ b/2022/Symphony/MAY/28.05.2022/MC Bank Statement May-2022.xlsx
@@ -2260,7 +2260,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3291,15 +3291,6 @@
     <xf numFmtId="0" fontId="3" fillId="37" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9711,6 +9702,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9727,9 +9721,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -34459,10 +34450,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y218"/>
+  <dimension ref="A1:Y217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34481,35 +34472,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="360" t="s">
+      <c r="A1" s="357" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="361"/>
-      <c r="C1" s="361"/>
-      <c r="D1" s="361"/>
-      <c r="E1" s="362"/>
+      <c r="B1" s="358"/>
+      <c r="C1" s="358"/>
+      <c r="D1" s="358"/>
+      <c r="E1" s="359"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="366" t="s">
+      <c r="A2" s="363" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="367"/>
-      <c r="C2" s="367"/>
-      <c r="D2" s="367"/>
-      <c r="E2" s="368"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="365"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="363" t="s">
+      <c r="A3" s="360" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="364"/>
-      <c r="C3" s="364"/>
-      <c r="D3" s="364"/>
-      <c r="E3" s="365"/>
+      <c r="B3" s="361"/>
+      <c r="C3" s="361"/>
+      <c r="D3" s="361"/>
+      <c r="E3" s="362"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34532,15 +34523,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="369" t="s">
+      <c r="A4" s="366" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="370"/>
+      <c r="B4" s="367"/>
       <c r="C4" s="272"/>
-      <c r="D4" s="371" t="s">
+      <c r="D4" s="368" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="372"/>
+      <c r="E4" s="369"/>
       <c r="F4" s="5"/>
       <c r="G4" s="46"/>
       <c r="H4" s="7"/>
@@ -35013,13 +35004,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="22.5">
-      <c r="A19" s="357" t="s">
+      <c r="A19" s="354" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="358"/>
-      <c r="C19" s="358"/>
-      <c r="D19" s="358"/>
-      <c r="E19" s="359"/>
+      <c r="B19" s="355"/>
+      <c r="C19" s="355"/>
+      <c r="D19" s="355"/>
+      <c r="E19" s="356"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
@@ -35461,12 +35452,7 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
     </row>
-    <row r="34" spans="1:25" ht="21" thickBot="1">
-      <c r="A34" s="354"/>
-      <c r="B34" s="355"/>
-      <c r="C34" s="355"/>
-      <c r="D34" s="355"/>
-      <c r="E34" s="356"/>
+    <row r="34" spans="1:25">
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -35487,6 +35473,7 @@
       <c r="Y34" s="7"/>
     </row>
     <row r="35" spans="1:25">
+      <c r="E35" s="15"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -35507,7 +35494,6 @@
       <c r="Y35" s="7"/>
     </row>
     <row r="36" spans="1:25">
-      <c r="E36" s="15"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -39147,32 +39133,11 @@
       <c r="X217" s="7"/>
       <c r="Y217" s="7"/>
     </row>
-    <row r="218" spans="8:25">
-      <c r="H218" s="7"/>
-      <c r="I218" s="7"/>
-      <c r="J218" s="7"/>
-      <c r="K218" s="7"/>
-      <c r="L218" s="7"/>
-      <c r="M218" s="7"/>
-      <c r="N218" s="7"/>
-      <c r="O218" s="7"/>
-      <c r="P218" s="7"/>
-      <c r="Q218" s="7"/>
-      <c r="R218" s="7"/>
-      <c r="S218" s="7"/>
-      <c r="T218" s="7"/>
-      <c r="U218" s="7"/>
-      <c r="V218" s="7"/>
-      <c r="W218" s="7"/>
-      <c r="X218" s="7"/>
-      <c r="Y218" s="7"/>
-    </row>
   </sheetData>
   <sortState ref="A21:B32">
     <sortCondition ref="A20"/>
   </sortState>
-  <mergeCells count="7">
-    <mergeCell ref="A34:E34"/>
+  <mergeCells count="6">
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
